--- a/evaluations/2.1.xlsx
+++ b/evaluations/2.1.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4180" yWindow="2300" windowWidth="25600" windowHeight="16100" tabRatio="500"/>
+    <workbookView xWindow="10040" yWindow="4360" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="2.1.csv" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,22 +19,44 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>lower</t>
   </si>
   <si>
     <t>upper</t>
   </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Number of Courses</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -57,13 +79,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -85,7 +111,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -95,10 +121,21 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2.1.csv'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Number of Courses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'2.1.csv'!$A$1:$A$2</c:f>
+              <c:f>'2.1.csv'!$A$2:$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -112,7 +149,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2.1.csv'!$B$1:$B$2</c:f>
+              <c:f>'2.1.csv'!$B$2:$B$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -135,20 +172,39 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2120279368"/>
-        <c:axId val="2121129704"/>
+        <c:axId val="2120269896"/>
+        <c:axId val="2118758392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2120279368"/>
+        <c:axId val="2120269896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Year</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121129704"/>
+        <c:crossAx val="2118758392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -156,27 +212,46 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2121129704"/>
+        <c:axId val="2118758392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Courses</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120279368"/>
+        <c:crossAx val="2120269896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -194,19 +269,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="5" name="Chart 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -546,32 +621,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="A1:B2"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
-      <c r="B1">
-        <v>132</v>
+      <c r="B1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>254</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/evaluations/2.1.xlsx
+++ b/evaluations/2.1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10040" yWindow="4360" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="13280" yWindow="2300" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="2.1.csv" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <t>Year</t>
   </si>
   <si>
-    <t>Number of Courses</t>
+    <t>Number of Courses that have a high evaluation score (&gt;=3.5)</t>
   </si>
 </sst>
 </file>
@@ -127,7 +127,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Number of Courses</c:v>
+                  <c:v>Number of Courses that have a high evaluation score (&gt;=3.5)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -172,11 +172,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2120269896"/>
-        <c:axId val="2118758392"/>
+        <c:axId val="2075532152"/>
+        <c:axId val="2073192712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2120269896"/>
+        <c:axId val="2075532152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -204,7 +204,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2118758392"/>
+        <c:crossAx val="2073192712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -212,7 +212,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2118758392"/>
+        <c:axId val="2073192712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -247,7 +247,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120269896"/>
+        <c:crossAx val="2075532152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -624,7 +624,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
